--- a/server/Uploads/classes.xlsx
+++ b/server/Uploads/classes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenhu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47C7DF5-685A-483B-AF6C-2BD92C3F3D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA5296F-A40C-4DAA-AECB-4FE337EC7A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6825" yWindow="2850" windowWidth="15615" windowHeight="11235" xr2:uid="{4055AE8D-10FB-4500-B233-61A215BE8418}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{4055AE8D-10FB-4500-B233-61A215BE8418}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>10a3</t>
   </si>
@@ -44,12 +44,6 @@
     <t>10a4</t>
   </si>
   <si>
-    <t>Lop 10A3</t>
-  </si>
-  <si>
-    <t>Lop 10A4</t>
-  </si>
-  <si>
     <t>GradeId</t>
   </si>
   <si>
@@ -72,16 +66,112 @@
   </si>
   <si>
     <t>Roll no</t>
+  </si>
+  <si>
+    <t>Lớp 10A2</t>
+  </si>
+  <si>
+    <t>Lớp 10A1</t>
+  </si>
+  <si>
+    <t>Lớp 10A3</t>
+  </si>
+  <si>
+    <t>Lớp 10A4</t>
+  </si>
+  <si>
+    <t>Lớp 10A5</t>
+  </si>
+  <si>
+    <t>Lớp 10A6</t>
+  </si>
+  <si>
+    <t>Lớp 10A7</t>
+  </si>
+  <si>
+    <t>Lớp 10A8</t>
+  </si>
+  <si>
+    <t>Lớp 10A9</t>
+  </si>
+  <si>
+    <t>Lớp 10A10</t>
+  </si>
+  <si>
+    <t>Lớp 11A1</t>
+  </si>
+  <si>
+    <t>Lớp 11A2</t>
+  </si>
+  <si>
+    <t>Lớp 11A3</t>
+  </si>
+  <si>
+    <t>Lớp 11A4</t>
+  </si>
+  <si>
+    <t>Lớp 11A5</t>
+  </si>
+  <si>
+    <t>Lớp 11A6</t>
+  </si>
+  <si>
+    <t>Lớp 11A7</t>
+  </si>
+  <si>
+    <t>Lớp 11A8</t>
+  </si>
+  <si>
+    <t>Lớp 11A9</t>
+  </si>
+  <si>
+    <t>Lớp 11A10</t>
+  </si>
+  <si>
+    <t>Lớp 12A1</t>
+  </si>
+  <si>
+    <t>Lớp 12A2</t>
+  </si>
+  <si>
+    <t>Lớp 12A3</t>
+  </si>
+  <si>
+    <t>Lớp 12A4</t>
+  </si>
+  <si>
+    <t>Lớp 12A5</t>
+  </si>
+  <si>
+    <t>Lớp 12A6</t>
+  </si>
+  <si>
+    <t>Lớp 12A7</t>
+  </si>
+  <si>
+    <t>Lớp 12A8</t>
+  </si>
+  <si>
+    <t>Lớp 12A9</t>
+  </si>
+  <si>
+    <t>Lớp 12A10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -443,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873C7A4F-D55A-44D6-A08E-4D199E6F7BB6}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,28 +552,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -500,7 +590,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -523,16 +613,577 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>18</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>22</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>23</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22">
         <v>3</v>
       </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="C22">
+        <v>25</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>26</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>27</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>28</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>29</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>30</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>31</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>32</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>33</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/server/Uploads/classes.xlsx
+++ b/server/Uploads/classes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenhu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenhu\OneDrive\Máy tính\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA5296F-A40C-4DAA-AECB-4FE337EC7A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CFF751-AA0C-4CA2-9B5A-4E294B30EF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{4055AE8D-10FB-4500-B233-61A215BE8418}"/>
   </bookViews>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
-  <si>
-    <t>10a3</t>
-  </si>
-  <si>
-    <t>10a4</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>GradeId</t>
   </si>
@@ -152,10 +146,10 @@
     <t>Lớp 12A8</t>
   </si>
   <si>
-    <t>Lớp 12A9</t>
-  </si>
-  <si>
-    <t>Lớp 12A10</t>
+    <t>datecread</t>
+  </si>
+  <si>
+    <t>dateupdated</t>
   </si>
 </sst>
 </file>
@@ -533,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873C7A4F-D55A-44D6-A08E-4D199E6F7BB6}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,38 +544,44 @@
     <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -590,21 +590,22 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H3" si="0">F2</f>
+        <v>Lớp 10A1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -613,181 +614,214 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="0"/>
+        <v>Lớp 10A2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>31</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="str">
+        <f>F4</f>
+        <v>Lớp 10A3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>32</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" ref="H5:H29" si="1">F5</f>
+        <v>Lớp 10A4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>33</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v>Lớp 10A5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>34</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
       </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="1"/>
+        <v>Lớp 10A6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
         <v>14</v>
       </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v>Lớp 10A7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
         <v>15</v>
       </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="1"/>
+        <v>Lớp 10A8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>37</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
         <v>16</v>
       </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="1"/>
+        <v>Lớp 10A9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>38</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
         <v>17</v>
       </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>12</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>13</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>19</v>
-      </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" t="str">
+        <f t="shared" si="1"/>
+        <v>Lớp 10A10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -796,18 +830,22 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" t="str">
+        <f t="shared" si="1"/>
+        <v>Lớp 11A1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -816,18 +854,22 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13" t="str">
+        <f t="shared" si="1"/>
+        <v>Lớp 11A2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -836,18 +878,22 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" t="str">
+        <f t="shared" si="1"/>
+        <v>Lớp 11A3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -856,18 +902,22 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" t="str">
+        <f t="shared" si="1"/>
+        <v>Lớp 11A4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -876,18 +926,22 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="str">
+        <f t="shared" si="1"/>
+        <v>Lớp 11A5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -896,18 +950,22 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="str">
+        <f t="shared" si="1"/>
+        <v>Lớp 11A6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -916,18 +974,22 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="str">
+        <f t="shared" si="1"/>
+        <v>Lớp 11A7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -936,18 +998,22 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="str">
+        <f t="shared" si="1"/>
+        <v>Lớp 11A8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -956,18 +1022,22 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="str">
+        <f t="shared" si="1"/>
+        <v>Lớp 11A9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -976,18 +1046,22 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="str">
+        <f t="shared" si="1"/>
+        <v>Lớp 11A10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>3</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -996,18 +1070,22 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H22" t="str">
+        <f t="shared" si="1"/>
+        <v>Lớp 12A1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1016,18 +1094,22 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H23" t="str">
+        <f t="shared" si="1"/>
+        <v>Lớp 12A2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>3</v>
       </c>
       <c r="C24">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1036,18 +1118,22 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H24" t="str">
+        <f t="shared" si="1"/>
+        <v>Lớp 12A3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>3</v>
       </c>
       <c r="C25">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1056,18 +1142,22 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H25" t="str">
+        <f t="shared" si="1"/>
+        <v>Lớp 12A4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>3</v>
       </c>
       <c r="C26">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1076,18 +1166,22 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H26" t="str">
+        <f t="shared" si="1"/>
+        <v>Lớp 12A5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>3</v>
       </c>
       <c r="C27">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1096,18 +1190,22 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H27" t="str">
+        <f t="shared" si="1"/>
+        <v>Lớp 12A6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>3</v>
       </c>
       <c r="C28">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1116,18 +1214,22 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H28" t="str">
+        <f t="shared" si="1"/>
+        <v>Lớp 12A7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>3</v>
       </c>
       <c r="C29">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1136,50 +1238,14 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <v>32</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31">
-        <v>33</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
+      <c r="H29" t="str">
+        <f t="shared" si="1"/>
+        <v>Lớp 12A8</v>
       </c>
     </row>
   </sheetData>

--- a/server/Uploads/classes.xlsx
+++ b/server/Uploads/classes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenhu\OneDrive\Máy tính\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CFF751-AA0C-4CA2-9B5A-4E294B30EF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1CB777-1A29-4D63-A43B-BBFB6C39DE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{4055AE8D-10FB-4500-B233-61A215BE8418}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{4055AE8D-10FB-4500-B233-61A215BE8418}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -530,7 +530,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,7 +584,7 @@
         <v>29</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -608,7 +608,7 @@
         <v>30</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -632,7 +632,7 @@
         <v>31</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>32</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -680,7 +680,7 @@
         <v>33</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -704,7 +704,7 @@
         <v>34</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -728,7 +728,7 @@
         <v>35</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -752,7 +752,7 @@
         <v>36</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -776,7 +776,7 @@
         <v>37</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -800,7 +800,7 @@
         <v>38</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>39</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -848,7 +848,7 @@
         <v>40</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -872,7 +872,7 @@
         <v>41</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -896,7 +896,7 @@
         <v>42</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -920,7 +920,7 @@
         <v>43</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -944,7 +944,7 @@
         <v>44</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -968,7 +968,7 @@
         <v>45</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -992,7 +992,7 @@
         <v>46</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1016,7 +1016,7 @@
         <v>47</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1040,7 +1040,7 @@
         <v>48</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1064,7 +1064,7 @@
         <v>49</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1088,7 +1088,7 @@
         <v>50</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1112,7 +1112,7 @@
         <v>51</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1136,7 +1136,7 @@
         <v>52</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1160,7 +1160,7 @@
         <v>53</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1184,7 +1184,7 @@
         <v>54</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1208,7 +1208,7 @@
         <v>55</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1232,7 +1232,7 @@
         <v>56</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E29">
         <v>1</v>
